--- a/vlm_results/vlm_evaluation_scores.xlsx
+++ b/vlm_results/vlm_evaluation_scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -740,36 +740,72 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>baseline</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>pdf</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5793015162797827</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8737864077669902</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6176470588235293</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.854368932038835</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.8737864077669902</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.9030793905258179</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.9333224296569824</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.9179518818855286</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>qwen</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>multi-image</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>0.7304696885839428</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E10" t="n">
         <v>0.9368421052631579</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F10" t="n">
         <v>0.9791666666666666</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G10" t="n">
         <v>1</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H10" t="n">
         <v>0.9579541087150574</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I10" t="n">
         <v>0.9494221210479736</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J10" t="n">
         <v>0.953669011592865</v>
       </c>
     </row>
